--- a/public/uploads/files/UpdatingProductBrandsSample.xlsx
+++ b/public/uploads/files/UpdatingProductBrandsSample.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19290" windowHeight="4485"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
-    <sheet name="Products" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>ItemCode</t>
   </si>
@@ -35,28 +35,13 @@
     <t>BrandCode</t>
   </si>
   <si>
-    <t>WHRD215IMPROROY5S73161</t>
-  </si>
-  <si>
-    <t>Pureit</t>
-  </si>
-  <si>
-    <t>HIACRASG312PCAISF</t>
-  </si>
-  <si>
-    <t>Hitachi</t>
-  </si>
-  <si>
-    <t>VDGRIRISADCST</t>
-  </si>
-  <si>
-    <t>Vidiem</t>
-  </si>
-  <si>
-    <t>LGLE43LM5600FHD</t>
+    <t>ONQLQZ32HI</t>
   </si>
   <si>
     <t>LG</t>
+  </si>
+  <si>
+    <t>ONLE43FZM</t>
   </si>
 </sst>
 </file>
@@ -69,13 +54,19 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -538,155 +529,155 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1070,68 +1061,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="3" width="34.125" customWidth="1"/>
+    <col min="1" max="1" width="26.375" customWidth="1"/>
+    <col min="2" max="2" width="17.6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" ht="17.4" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="17.4" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="10" ht="18" spans="1:1">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" ht="18" spans="1:1">
-      <c r="A11" s="2"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>